--- a/9月単語.xlsx
+++ b/9月単語.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kreis1g-tpc-029\Desktop\穆作業\Git管理\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{314D4894-8808-4795-9C92-E8515D3916B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D82E572-7731-40E5-8C9C-80D25AD9CD3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="391">
   <si>
     <t>漢字</t>
     <rPh sb="0" eb="2">
@@ -3189,36 +3189,1155 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>賛成</t>
+    <rPh sb="0" eb="2">
+      <t>サンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>哺乳</t>
+    <rPh sb="0" eb="2">
+      <t>ホニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>母乳</t>
+    <rPh sb="0" eb="2">
+      <t>ボニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>古淵</t>
+    <rPh sb="0" eb="2">
+      <t>コブチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こぶち</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オーバーライド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>重写</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>扱う</t>
+    <rPh sb="0" eb="1">
+      <t>アツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あつかう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>V1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>处</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>理，照</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>顾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，担任，担当。
+2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>细</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>心操</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>纵</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。
+3.接待，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>待，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>应</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>酬。
+4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>经营</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>买卖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。
+5.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>调</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>停，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>说</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>和。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャラクタ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>character ;字符，字符编码</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飲み屋</t>
+    <rPh sb="0" eb="1">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>のみや</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>居酒屋</t>
+    <rPh sb="0" eb="3">
+      <t>イザカヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いざかや</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>決勝</t>
+    <rPh sb="0" eb="2">
+      <t>ケッショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>けっしょう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>决</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>赛</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，决</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>胜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>负</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>医院</t>
+    <rPh sb="0" eb="2">
+      <t>イイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いいん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>医員</t>
+    <rPh sb="0" eb="2">
+      <t>イイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>納まる</t>
+    <rPh sb="0" eb="1">
+      <t>オサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おさまる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>おさまる物の中や限度内にきちんと入れる。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+道具が箱の中に収まった。 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+受け取り手に正しく引き渡される。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ある地位・境遇に満足して落ち着く。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>付ける</t>
+    <rPh sb="0" eb="1">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>つける</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>V2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>取名字；打分</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>空かす</t>
+    <rPh sb="0" eb="1">
+      <t>ス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>すかす</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>腹をへらす</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>右折</t>
+    <rPh sb="0" eb="2">
+      <t>ウセツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うせつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>道路などを右へ曲がること。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>曲がる</t>
+    <rPh sb="0" eb="1">
+      <t>マ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まがる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特技</t>
+    <rPh sb="0" eb="2">
+      <t>トクギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>とくぎ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ちりがみ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ちり紙</t>
+  </si>
+  <si>
+    <t>トイレットペーパー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>走り抜く</t>
+    <rPh sb="0" eb="1">
+      <t>ハシ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヌ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>はしりぬく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>坚</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>持跑完全程</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>沸き上がる</t>
+    <rPh sb="0" eb="1">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>わきあがる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>1.沸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>腾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>；煮开，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>滚</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>开。
+2.狂</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>热</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。因</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>兴奋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>而</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>骚动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>乗り越し</t>
+    <rPh sb="0" eb="1">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>のりこし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電車やバスなどで下車する予定の，または乗車券の指定する駅や停留所を越して先まで行ってしまうこと。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>報酬</t>
+    <rPh sb="0" eb="2">
+      <t>ホウシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ほうしゅう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無責任</t>
+    <rPh sb="0" eb="3">
+      <t>ムセキニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>むせきにん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>adj2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レンズ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>透</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>镜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>镜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>片。（照相机的）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>镜头</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>没収</t>
+    <rPh sb="0" eb="2">
+      <t>ボッシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ぼっしゅう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>さんせい</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>賛成</t>
-    <rPh sb="0" eb="2">
-      <t>サンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>哺乳</t>
-    <rPh sb="0" eb="2">
-      <t>ホニュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>ほにゅう</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>母乳</t>
-    <rPh sb="0" eb="2">
-      <t>ボニュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>ぼにゅう</t>
+  </si>
+  <si>
+    <t>バックスラッシュ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Backing slash 反斜杠</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エスケープ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>escape；逃学，逃脱</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インデント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>空格</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勝手</t>
+    <rPh sb="0" eb="2">
+      <t>カッテ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かって</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>【形容</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>动词</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/ナ形容</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>词</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>】
+1.任意；随便，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>所欲</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，只</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>顾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>个人方便；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>专</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>断。
+【名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>词</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>】
+1.厨房。
+2.情况。
+3.生活。生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>计</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。
+4.方便。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>N/adj2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>短絡</t>
+    <rPh sb="0" eb="2">
+      <t>タンラク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>たんらく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シンボリック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>象徴的であるさま</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>区切</t>
+    <rPh sb="0" eb="2">
+      <t>クギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>区切</t>
+    <rPh sb="0" eb="2">
+      <t>クギリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>段落</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラス変数とインスタンス変数</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>类变</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>量和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>实</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>例</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>变</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>量</t>
+    </r>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3281,7 +4400,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -3304,48 +4423,42 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -3629,112 +4742,120 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:X37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="R37" sqref="R37"/>
+    <sheetView tabSelected="1" topLeftCell="J20" workbookViewId="0">
+      <selection activeCell="U37" sqref="U37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.125" customWidth="1"/>
-    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="38" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="17.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="4"/>
+    <col min="4" max="4" width="27.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="9" style="4"/>
+    <col min="9" max="9" width="23.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="9" style="4"/>
+    <col min="14" max="14" width="38" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="9" style="4"/>
+    <col min="19" max="19" width="23.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="9" style="4"/>
+    <col min="22" max="22" width="15.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9" style="4"/>
+    <col min="24" max="24" width="25.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="F1" s="6" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="K1" s="6" t="s">
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="K1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="P1" s="6" t="s">
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="P1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="U1" s="6" t="s">
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="U1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="R2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="S2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="U2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="V2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="W2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="X2" s="5" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3761,16 +4882,16 @@
         <v>11</v>
       </c>
       <c r="I3" s="2"/>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="M3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="N3" s="6" t="s">
         <v>166</v>
       </c>
       <c r="P3" s="2" t="s">
@@ -3783,10 +4904,16 @@
         <v>53</v>
       </c>
       <c r="S3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="3"/>
+      <c r="U3" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="X3" s="7"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
@@ -3816,7 +4943,7 @@
       <c r="M4" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" s="7" t="s">
         <v>169</v>
       </c>
       <c r="P4" s="2" t="s">
@@ -3830,11 +4957,17 @@
       </c>
       <c r="S4" s="2"/>
       <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
+      <c r="V4" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>314</v>
+      </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:24" ht="93.75" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
@@ -3847,7 +4980,7 @@
       <c r="D5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="1" t="s">
         <v>94</v>
       </c>
       <c r="G5" s="2" t="s">
@@ -3878,13 +5011,21 @@
       <c r="R5" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="S5" s="2" t="s">
+      <c r="S5" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
+      <c r="U5" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="X5" s="6" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
@@ -3908,7 +5049,7 @@
       <c r="H6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="7" t="s">
         <v>99</v>
       </c>
       <c r="K6" s="2" t="s">
@@ -3934,9 +5075,15 @@
         <v>242</v>
       </c>
       <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="3"/>
+      <c r="V6" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="W6" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="X6" s="7" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
@@ -3959,7 +5106,7 @@
         <v>11</v>
       </c>
       <c r="I7" s="2"/>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="1" t="s">
         <v>174</v>
       </c>
       <c r="L7" s="2" t="s">
@@ -3983,10 +5130,18 @@
       <c r="S7" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
+      <c r="U7" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="W7" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="X7" s="2" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
@@ -4008,7 +5163,7 @@
       <c r="H8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="7" t="s">
         <v>103</v>
       </c>
       <c r="K8" s="2"/>
@@ -4031,9 +5186,15 @@
         <v>11</v>
       </c>
       <c r="S8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
+      <c r="U8" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="V8" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="W8" s="2" t="s">
+        <v>312</v>
+      </c>
       <c r="X8" s="2"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.4">
@@ -4049,7 +5210,7 @@
       <c r="D9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="1" t="s">
         <v>104</v>
       </c>
       <c r="G9" s="2" t="s">
@@ -4058,10 +5219,10 @@
       <c r="H9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="K9" s="1" t="s">
         <v>179</v>
       </c>
       <c r="L9" s="2" t="s">
@@ -4081,10 +5242,18 @@
         <v>11</v>
       </c>
       <c r="S9" s="2"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
+      <c r="U9" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="V9" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="W9" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="X9" s="2" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
@@ -4108,7 +5277,7 @@
       <c r="H10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="7" t="s">
         <v>109</v>
       </c>
       <c r="K10" s="2"/>
@@ -4131,9 +5300,15 @@
         <v>11</v>
       </c>
       <c r="S10" s="2"/>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
-      <c r="W10" s="2"/>
+      <c r="U10" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="W10" s="2" t="s">
+        <v>312</v>
+      </c>
       <c r="X10" s="2"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.4">
@@ -4146,7 +5321,7 @@
       <c r="C11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="7" t="s">
         <v>34</v>
       </c>
       <c r="F11" s="2"/>
@@ -4156,7 +5331,7 @@
       <c r="H11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="7" t="s">
         <v>111</v>
       </c>
       <c r="K11" s="2" t="s">
@@ -4179,12 +5354,18 @@
         <v>11</v>
       </c>
       <c r="S11" s="2"/>
-      <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
-      <c r="W11" s="2"/>
-      <c r="X11" s="3"/>
+      <c r="U11" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="V11" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="W11" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="X11" s="7"/>
     </row>
-    <row r="12" spans="1:24" ht="75" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:24" ht="131.25" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>35</v>
       </c>
@@ -4206,7 +5387,7 @@
       <c r="H12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I12" s="3"/>
+      <c r="I12" s="7"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2" t="s">
         <v>185</v>
@@ -4214,7 +5395,7 @@
       <c r="M12" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="N12" s="8" t="s">
+      <c r="N12" s="6" t="s">
         <v>186</v>
       </c>
       <c r="P12" s="2" t="s">
@@ -4227,10 +5408,18 @@
         <v>11</v>
       </c>
       <c r="S12" s="2"/>
-      <c r="U12" s="2"/>
-      <c r="V12" s="2"/>
-      <c r="W12" s="2"/>
-      <c r="X12" s="2"/>
+      <c r="U12" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="V12" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="W12" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="X12" s="6" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
@@ -4254,7 +5443,7 @@
       <c r="H13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I13" s="3"/>
+      <c r="I13" s="7"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2" t="s">
         <v>187</v>
@@ -4275,10 +5464,18 @@
         <v>11</v>
       </c>
       <c r="S13" s="2"/>
-      <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
-      <c r="W13" s="2"/>
-      <c r="X13" s="2"/>
+      <c r="U13" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="V13" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="W13" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="X13" s="2" t="s">
+        <v>337</v>
+      </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
@@ -4291,16 +5488,16 @@
         <v>11</v>
       </c>
       <c r="D14" s="2"/>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="1" t="s">
         <v>115</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="7" t="s">
         <v>117</v>
       </c>
       <c r="K14" s="2" t="s">
@@ -4313,7 +5510,7 @@
         <v>11</v>
       </c>
       <c r="N14" s="2"/>
-      <c r="P14" s="7" t="s">
+      <c r="P14" s="1" t="s">
         <v>256</v>
       </c>
       <c r="Q14" s="2" t="s">
@@ -4322,13 +5519,21 @@
       <c r="R14" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="S14" s="11" t="s">
+      <c r="S14" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
-      <c r="W14" s="2"/>
-      <c r="X14" s="2"/>
+      <c r="U14" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="V14" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="W14" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="X14" s="2" t="s">
+        <v>340</v>
+      </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
@@ -4340,14 +5545,14 @@
       <c r="C15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="7"/>
       <c r="F15" s="2" t="s">
         <v>118</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="I15" s="2" t="s">
@@ -4363,7 +5568,7 @@
         <v>11</v>
       </c>
       <c r="N15" s="2"/>
-      <c r="P15" s="7" t="s">
+      <c r="P15" s="1" t="s">
         <v>259</v>
       </c>
       <c r="Q15" s="2" t="s">
@@ -4375,10 +5580,18 @@
       <c r="S15" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="U15" s="2"/>
-      <c r="V15" s="2"/>
-      <c r="W15" s="2"/>
-      <c r="X15" s="2"/>
+      <c r="U15" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="V15" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="W15" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="X15" s="2" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
@@ -4397,10 +5610,10 @@
       <c r="G16" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="H16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I16" s="5" t="s">
+      <c r="H16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" s="9" t="s">
         <v>123</v>
       </c>
       <c r="K16" s="2" t="s">
@@ -4423,9 +5636,15 @@
         <v>11</v>
       </c>
       <c r="S16" s="2"/>
-      <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
-      <c r="W16" s="2"/>
+      <c r="U16" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="V16" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="W16" s="2" t="s">
+        <v>317</v>
+      </c>
       <c r="X16" s="2"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.4">
@@ -4445,10 +5664,10 @@
       <c r="G17" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I17" s="5"/>
+      <c r="H17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" s="9"/>
       <c r="K17" s="2" t="s">
         <v>195</v>
       </c>
@@ -4469,9 +5688,15 @@
         <v>11</v>
       </c>
       <c r="S17" s="2"/>
-      <c r="U17" s="2"/>
-      <c r="V17" s="2"/>
-      <c r="W17" s="2"/>
+      <c r="U17" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="V17" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="W17" s="2" t="s">
+        <v>312</v>
+      </c>
       <c r="X17" s="2"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.4">
@@ -4491,12 +5716,12 @@
       <c r="G18" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I18" s="5"/>
+      <c r="H18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" s="9"/>
       <c r="K18" s="2"/>
-      <c r="L18" s="7" t="s">
+      <c r="L18" s="1" t="s">
         <v>198</v>
       </c>
       <c r="M18" s="2" t="s">
@@ -4515,10 +5740,18 @@
         <v>11</v>
       </c>
       <c r="S18" s="2"/>
-      <c r="U18" s="2"/>
-      <c r="V18" s="2"/>
-      <c r="W18" s="2"/>
-      <c r="X18" s="2"/>
+      <c r="U18" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="V18" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="W18" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="X18" s="2" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.4">
       <c r="B19" s="2" t="s">
@@ -4527,7 +5760,7 @@
       <c r="C19" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="7" t="s">
         <v>54</v>
       </c>
       <c r="F19" s="2" t="s">
@@ -4536,10 +5769,10 @@
       <c r="G19" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="H19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I19" s="5"/>
+      <c r="H19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" s="9"/>
       <c r="K19" s="2" t="s">
         <v>199</v>
       </c>
@@ -4549,7 +5782,7 @@
       <c r="M19" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="N19" s="3" t="s">
+      <c r="N19" s="7" t="s">
         <v>201</v>
       </c>
       <c r="P19" s="2" t="s">
@@ -4562,12 +5795,20 @@
         <v>11</v>
       </c>
       <c r="S19" s="2"/>
-      <c r="U19" s="2"/>
-      <c r="V19" s="2"/>
-      <c r="W19" s="2"/>
-      <c r="X19" s="2"/>
+      <c r="U19" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="V19" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="W19" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="X19" s="7" t="s">
+        <v>353</v>
+      </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:24" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>55</v>
       </c>
@@ -4577,19 +5818,19 @@
       <c r="C20" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="1" t="s">
         <v>130</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I20" s="5" t="s">
+      <c r="H20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I20" s="9" t="s">
         <v>132</v>
       </c>
       <c r="K20" s="2" t="s">
@@ -4613,13 +5854,21 @@
       <c r="R20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="S20" s="3" t="s">
+      <c r="S20" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="U20" s="2"/>
-      <c r="V20" s="2"/>
-      <c r="W20" s="2"/>
-      <c r="X20" s="2"/>
+      <c r="U20" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="V20" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="W20" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="X20" s="6" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
@@ -4638,11 +5887,11 @@
       <c r="G21" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I21" s="5"/>
-      <c r="K21" s="7" t="s">
+      <c r="H21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="K21" s="1" t="s">
         <v>205</v>
       </c>
       <c r="L21" s="2" t="s">
@@ -4654,7 +5903,7 @@
       <c r="N21" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="P21" s="1" t="s">
         <v>272</v>
       </c>
       <c r="Q21" s="2" t="s">
@@ -4663,13 +5912,21 @@
       <c r="R21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="S21" s="3" t="s">
+      <c r="S21" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="U21" s="2"/>
-      <c r="V21" s="2"/>
-      <c r="W21" s="2"/>
-      <c r="X21" s="3"/>
+      <c r="U21" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="V21" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="W21" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="X21" s="7" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
@@ -4688,10 +5945,10 @@
       <c r="G22" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I22" s="5"/>
+      <c r="H22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22" s="9"/>
       <c r="K22" s="2" t="s">
         <v>208</v>
       </c>
@@ -4711,13 +5968,19 @@
       <c r="R22" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="S22" s="3" t="s">
+      <c r="S22" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="U22" s="2"/>
-      <c r="V22" s="2"/>
-      <c r="W22" s="2"/>
-      <c r="X22" s="3"/>
+      <c r="U22" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="V22" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="W22" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="X22" s="7"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
@@ -4729,19 +5992,19 @@
       <c r="C23" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="1" t="s">
         <v>137</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="H23" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="I23" s="5" t="s">
+      <c r="I23" s="9" t="s">
         <v>139</v>
       </c>
       <c r="K23" s="2" t="s">
@@ -4754,7 +6017,7 @@
         <v>11</v>
       </c>
       <c r="N23" s="2"/>
-      <c r="P23" s="7" t="s">
+      <c r="P23" s="1" t="s">
         <v>277</v>
       </c>
       <c r="Q23" s="2" t="s">
@@ -4763,12 +6026,18 @@
       <c r="R23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="S23" s="3" t="s">
+      <c r="S23" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="U23" s="2"/>
-      <c r="V23" s="2"/>
-      <c r="W23" s="2"/>
+      <c r="U23" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="V23" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="W23" s="2" t="s">
+        <v>364</v>
+      </c>
       <c r="X23" s="2"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.4">
@@ -4803,7 +6072,7 @@
       <c r="M24" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="N24" s="3" t="s">
+      <c r="N24" s="7" t="s">
         <v>214</v>
       </c>
       <c r="P24" s="2" t="s">
@@ -4817,9 +6086,15 @@
       </c>
       <c r="S24" s="2"/>
       <c r="U24" s="2"/>
-      <c r="V24" s="2"/>
-      <c r="W24" s="2"/>
-      <c r="X24" s="2"/>
+      <c r="V24" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="W24" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="X24" s="2" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
@@ -4831,7 +6106,7 @@
       <c r="C25" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="7" t="s">
         <v>70</v>
       </c>
       <c r="F25" s="2" t="s">
@@ -4840,7 +6115,7 @@
       <c r="G25" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="H25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="I25" s="2"/>
@@ -4854,7 +6129,7 @@
       <c r="N25" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="P25" s="1" t="s">
         <v>282</v>
       </c>
       <c r="Q25" s="2" t="s">
@@ -4864,9 +6139,15 @@
         <v>168</v>
       </c>
       <c r="S25" s="2"/>
-      <c r="U25" s="2"/>
-      <c r="V25" s="2"/>
-      <c r="W25" s="2"/>
+      <c r="U25" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="V25" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="W25" s="2" t="s">
+        <v>312</v>
+      </c>
       <c r="X25" s="2"/>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.4">
@@ -4914,9 +6195,15 @@
       <c r="S26" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="U26" s="2"/>
-      <c r="V26" s="2"/>
-      <c r="W26" s="2"/>
+      <c r="U26" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="V26" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="W26" s="2" t="s">
+        <v>311</v>
+      </c>
       <c r="X26" s="2"/>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.4">
@@ -4932,7 +6219,7 @@
       <c r="D27" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="1" t="s">
         <v>147</v>
       </c>
       <c r="G27" s="2" t="s">
@@ -4944,7 +6231,7 @@
       <c r="I27" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="K27" s="1" t="s">
         <v>219</v>
       </c>
       <c r="L27" s="2" t="s">
@@ -4953,7 +6240,7 @@
       <c r="M27" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N27" s="3" t="s">
+      <c r="N27" s="7" t="s">
         <v>221</v>
       </c>
       <c r="P27" s="2" t="s">
@@ -4962,13 +6249,19 @@
       <c r="Q27" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="R27" s="3" t="s">
+      <c r="R27" s="7" t="s">
         <v>11</v>
       </c>
       <c r="S27" s="2"/>
-      <c r="U27" s="2"/>
-      <c r="V27" s="2"/>
-      <c r="W27" s="2"/>
+      <c r="U27" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="V27" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="W27" s="2" t="s">
+        <v>311</v>
+      </c>
       <c r="X27" s="2"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.4">
@@ -4991,7 +6284,7 @@
       <c r="H28" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I28" s="3" t="s">
+      <c r="I28" s="7" t="s">
         <v>152</v>
       </c>
       <c r="K28" s="2" t="s">
@@ -5010,13 +6303,19 @@
       <c r="Q28" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="R28" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="S28" s="3"/>
-      <c r="U28" s="2"/>
-      <c r="V28" s="2"/>
-      <c r="W28" s="2"/>
+      <c r="R28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="S28" s="7"/>
+      <c r="U28" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="V28" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="W28" s="2" t="s">
+        <v>311</v>
+      </c>
       <c r="X28" s="2"/>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.4">
@@ -5029,7 +6328,7 @@
       <c r="C29" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="3"/>
+      <c r="D29" s="7"/>
       <c r="F29" s="2" t="s">
         <v>153</v>
       </c>
@@ -5056,15 +6355,21 @@
       <c r="Q29" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="R29" s="3" t="s">
+      <c r="R29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="S29" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="U29" s="2"/>
-      <c r="V29" s="2"/>
-      <c r="W29" s="2"/>
+      <c r="U29" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="V29" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="W29" s="2" t="s">
+        <v>311</v>
+      </c>
       <c r="X29" s="2"/>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.4">
@@ -5088,7 +6393,7 @@
         <v>11</v>
       </c>
       <c r="I30" s="2"/>
-      <c r="K30" s="7" t="s">
+      <c r="K30" s="1" t="s">
         <v>226</v>
       </c>
       <c r="L30" s="2" t="s">
@@ -5100,22 +6405,28 @@
       <c r="N30" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="P30" s="1" t="s">
         <v>294</v>
       </c>
       <c r="Q30" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="R30" s="3" t="s">
+      <c r="R30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="S30" s="2" t="s">
         <v>296</v>
       </c>
       <c r="U30" s="2"/>
-      <c r="V30" s="2"/>
-      <c r="W30" s="2"/>
-      <c r="X30" s="2"/>
+      <c r="V30" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="W30" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="X30" s="2" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
@@ -5146,26 +6457,32 @@
       <c r="L31" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="M31" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N31" s="3"/>
+      <c r="M31" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="N31" s="7"/>
       <c r="P31" s="2" t="s">
         <v>297</v>
       </c>
       <c r="Q31" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="R31" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="S31" s="3" t="s">
+      <c r="R31" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="S31" s="7" t="s">
         <v>299</v>
       </c>
       <c r="U31" s="2"/>
-      <c r="V31" s="2"/>
-      <c r="W31" s="2"/>
-      <c r="X31" s="2"/>
+      <c r="V31" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="W31" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="X31" s="2" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
@@ -5192,10 +6509,10 @@
       <c r="L32" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N32" s="3" t="s">
+      <c r="M32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="N32" s="7" t="s">
         <v>232</v>
       </c>
       <c r="P32" s="2" t="s">
@@ -5204,18 +6521,24 @@
       <c r="Q32" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="R32" s="3" t="s">
+      <c r="R32" s="7" t="s">
         <v>53</v>
       </c>
       <c r="S32" s="2" t="s">
         <v>302</v>
       </c>
       <c r="U32" s="2"/>
-      <c r="V32" s="2"/>
-      <c r="W32" s="2"/>
-      <c r="X32" s="2"/>
+      <c r="V32" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="W32" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="X32" s="2" t="s">
+        <v>377</v>
+      </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:24" ht="150" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
         <v>88</v>
       </c>
@@ -5237,68 +6560,76 @@
       <c r="H33" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I33" s="3"/>
+      <c r="I33" s="7"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
       <c r="P33" s="2" t="s">
         <v>303</v>
       </c>
       <c r="Q33" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="R33" s="3" t="s">
+      <c r="R33" s="7" t="s">
         <v>11</v>
       </c>
       <c r="S33" s="2"/>
-      <c r="U33" s="2"/>
-      <c r="V33" s="2"/>
-      <c r="W33" s="2"/>
-      <c r="X33" s="2"/>
+      <c r="U33" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="V33" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="W33" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="X33" s="6" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="P34" s="12" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q34" s="12" t="s">
-        <v>306</v>
-      </c>
-      <c r="R34" s="13" t="s">
-        <v>11</v>
+      <c r="U34" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="V34" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="W34" s="4" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="P35" s="12" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q35" s="12" t="s">
-        <v>306</v>
-      </c>
-      <c r="R35" s="13" t="s">
-        <v>11</v>
+      <c r="V35" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="W35" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="X35" s="4" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="P36" s="12" t="s">
-        <v>308</v>
-      </c>
-      <c r="Q36" s="12" t="s">
-        <v>309</v>
-      </c>
-      <c r="R36" s="13" t="s">
-        <v>11</v>
+      <c r="U36" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="V36" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="W36" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="X36" s="4" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="P37" s="12" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q37" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="R37" s="13" t="s">
-        <v>11</v>
+      <c r="U37" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="X37" s="10" t="s">
+        <v>390</v>
       </c>
     </row>
   </sheetData>
@@ -5311,5 +6642,6 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/9月単語.xlsx
+++ b/9月単語.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kreis1g-tpc-029\Desktop\穆作業\Git管理\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D82E572-7731-40E5-8C9C-80D25AD9CD3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED248730-9EF5-4B88-96E2-1F242C245C50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="１" sheetId="1" r:id="rId1"/>
+    <sheet name="2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="520">
   <si>
     <t>漢字</t>
     <rPh sb="0" eb="2">
@@ -3210,22 +3211,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>古淵</t>
-    <rPh sb="0" eb="2">
-      <t>コブチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>こぶち</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>N</t>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>オーバーライド</t>
@@ -3247,10 +3233,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>V1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <r>
       <t>1.</t>
     </r>
@@ -3643,10 +3625,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>V2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>取名字；打分</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -3915,10 +3893,6 @@
   </si>
   <si>
     <t>むせきにん</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>adj2</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -4230,10 +4204,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>N/adj2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>短絡</t>
     <rPh sb="0" eb="2">
       <t>タンラク</t>
@@ -4337,6 +4307,1589 @@
         <scheme val="minor"/>
       </rPr>
       <t>量</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2021/9/22の単語</t>
+    <rPh sb="10" eb="12">
+      <t>タンゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2021/9/23の単語</t>
+    <rPh sb="10" eb="12">
+      <t>タンゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2021/9/24の単語</t>
+    <rPh sb="10" eb="12">
+      <t>タンゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2021/9/25の単語</t>
+    <rPh sb="10" eb="12">
+      <t>タンゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2021/9/26の単語</t>
+    <rPh sb="10" eb="12">
+      <t>タンゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>務める</t>
+    <rPh sb="0" eb="1">
+      <t>ツト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>つとまる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>役目を受け持つ。役目をする。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>役目</t>
+    <rPh sb="0" eb="2">
+      <t>ヤクメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>やくめ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>職責</t>
+  </si>
+  <si>
+    <t>経緯</t>
+    <rPh sb="0" eb="2">
+      <t>ケイイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>けいい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敬意</t>
+    <rPh sb="0" eb="2">
+      <t>ケイイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>善悪</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンアク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ぜんあく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特定</t>
+    <rPh sb="0" eb="2">
+      <t>トクテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>とくてい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>滑る</t>
+    <rPh sb="0" eb="1">
+      <t>スベ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>すべる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>試験に落第する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>落第</t>
+    <rPh sb="0" eb="2">
+      <t>ラクダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>らくだい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>試験に合格しないこと</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>針金</t>
+    <rPh sb="0" eb="2">
+      <t>ハリガネ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>はりがね</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>铁丝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>铜丝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>钢丝</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>言い掛ける</t>
+    <rPh sb="0" eb="1">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いいかける</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あることを話し始める</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エコロジー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ecology环保</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>読み取る</t>
+    <rPh sb="0" eb="1">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>よみとる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>読んで内容を理解する。推しはかって理解する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>人員</t>
+    <rPh sb="0" eb="2">
+      <t>ジンイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>じんいん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヘアスタイル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>髪形</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>乾電池</t>
+    <rPh sb="0" eb="3">
+      <t>カンデンチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かんでんち</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大豆</t>
+    <rPh sb="0" eb="2">
+      <t>ダイズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>だいず</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>post職位</t>
+    <rPh sb="4" eb="6">
+      <t>ショクイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>成年</t>
+    <rPh sb="0" eb="2">
+      <t>セイネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>せいねん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>青年</t>
+    <rPh sb="0" eb="2">
+      <t>セイネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>氷山</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウザン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ひょうざん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラクション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>klaxon ;汽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>车</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的喇叭、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>电</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>气警笛</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鳴らす</t>
+    <rPh sb="0" eb="1">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ならす</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シーン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>场</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>面。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>镜头</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。情景。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上京</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>じょうきょう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>首府に行くこと。都に上ること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>状況</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>芽</t>
+    <rPh sb="0" eb="1">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>め</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>痛感</t>
+    <rPh sb="0" eb="2">
+      <t>ツウカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>つうかん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通関</t>
+    <rPh sb="0" eb="2">
+      <t>ツウカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>荷物の検</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>查</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>を受け，輸出入の許可を得て，税関を通過すること。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>象徴</t>
+    <rPh sb="0" eb="2">
+      <t>ショウチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しょうちょう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小腸</t>
+    <rPh sb="0" eb="2">
+      <t>ショウチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>省庁</t>
+    <rPh sb="0" eb="2">
+      <t>ショウチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>消長</t>
+    <rPh sb="0" eb="2">
+      <t>ショウチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>衰えたり盛んになったりすること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目方</t>
+    <rPh sb="0" eb="2">
+      <t>メカタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>めかた</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>重量</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>寄り</t>
+    <rPh sb="0" eb="1">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>より</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>偏，靠。（ある場所、方向等に近いこと。）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>改良</t>
+    <rPh sb="0" eb="2">
+      <t>カイリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かいりょう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まるまる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>すべて</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>訂正</t>
+    <rPh sb="0" eb="2">
+      <t>テイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ていせい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>抱える</t>
+    <rPh sb="0" eb="1">
+      <t>カカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かかえる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>交付</t>
+    <rPh sb="0" eb="2">
+      <t>コウフ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こうふ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>役所などから，金銭・書類などを一般の人にひき渡すこと。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>もらう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>【他</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>动词</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・五段/一</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>】
+1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>领</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>取，得到，收到；受到（批</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>评</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>等）；承担，接受，包；娶，收养，聘用，作</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>自己的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>组织</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>或家庭成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>员</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>迎接</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>来；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>传</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>上，感染上，被迫接受非自己</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>责</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>任的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>东</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>西；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>买</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>赢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>获</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>胜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。
+【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>惯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>用句】
+1.もらう物は夏も小袖。（受礼勿挑。白</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>给</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>东</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>西不挑剔）。
+【助</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>动词</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>】
+1.〈以「…してもらう」的形式〉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>求，承蒙，从</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>别</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>人的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>作中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>获</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>益，委托</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>别</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>人去行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>；〈以「…してもらう」的形式〉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>求，希望。自己的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>作或行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>为给</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>他人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>带</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>来好</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>处</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>漁村</t>
+    <rPh sb="0" eb="2">
+      <t>ギョソン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ぎょそん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詣でる</t>
+    <rPh sb="0" eb="1">
+      <t>モウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>もうでる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>神社・寺などに参拝する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>神社</t>
+    <rPh sb="0" eb="2">
+      <t>ジンジャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>じんじゃ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>てら</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>寺</t>
+    <rPh sb="0" eb="1">
+      <t>テラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>常に</t>
+    <rPh sb="0" eb="1">
+      <t>ツネ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>つねに</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>困り切る</t>
+    <rPh sb="0" eb="1">
+      <t>コマ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こまりきる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>束手无策。（それ以上困りようがないほど困る。困り果てる）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>線</t>
+    <rPh sb="0" eb="1">
+      <t>セン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>せん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>方向，方</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>针</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>弊社</t>
+    <rPh sb="0" eb="2">
+      <t>ヘイシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>へいしゃ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>配慮</t>
+    <rPh sb="0" eb="2">
+      <t>ハイリョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>はいりょ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>关</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>怀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，照</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>顾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，照料，关照</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>はいち</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>配置</t>
+    <rPh sb="0" eb="2">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>秩序</t>
+    <rPh sb="0" eb="2">
+      <t>チツジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ちつじょ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>寄越す</t>
+    <rPh sb="0" eb="2">
+      <t>ヨコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>よこす</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こちらへ渡す。くれる。送って来る</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソケット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>插座</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シェル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>shell</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>字下げ</t>
+    <rPh sb="0" eb="2">
+      <t>ジサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>じさげ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インデント</t>
+  </si>
+  <si>
+    <t>缩进</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グルーピング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>組分けすること。配置すること。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>十五夜</t>
+    <rPh sb="0" eb="3">
+      <t>ジュウゴヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>じゅうごや</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>月見（つきみ）</t>
+    <rPh sb="0" eb="2">
+      <t>ツキミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>母数</t>
+    <rPh sb="0" eb="2">
+      <t>ボスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ぼすう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>参数，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>总</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>体参数</t>
     </r>
     <phoneticPr fontId="1"/>
   </si>
@@ -4345,7 +5898,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4384,6 +5937,13 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -4427,16 +5987,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4458,6 +6015,14 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4742,120 +6307,120 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:X37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J20" workbookViewId="0">
-      <selection activeCell="U37" sqref="U37"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="U37" sqref="U37:X37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="17.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="4"/>
-    <col min="4" max="4" width="27.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="9" style="4"/>
-    <col min="9" max="9" width="23.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="9" style="4"/>
-    <col min="14" max="14" width="38" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="9" style="4"/>
-    <col min="19" max="19" width="23.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="9" style="4"/>
-    <col min="22" max="22" width="15.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9" style="4"/>
-    <col min="24" max="24" width="25.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="9.125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="17.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="3"/>
+    <col min="4" max="4" width="27.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="9" style="3"/>
+    <col min="9" max="9" width="23.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="9" style="3"/>
+    <col min="14" max="14" width="38" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="9" style="3"/>
+    <col min="19" max="19" width="23.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="9" style="3"/>
+    <col min="22" max="22" width="15.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9" style="3"/>
+    <col min="24" max="24" width="25.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="F1" s="3" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="K1" s="3" t="s">
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="K1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="P1" s="3" t="s">
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="P1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="U1" s="3" t="s">
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="U1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="P2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="Q2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="R2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="S2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="U2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="V2" s="5" t="s">
+      <c r="V2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="W2" s="5" t="s">
+      <c r="W2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="X2" s="5" t="s">
+      <c r="X2" s="4" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4891,7 +6456,7 @@
       <c r="M3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="N3" s="5" t="s">
         <v>166</v>
       </c>
       <c r="P3" s="2" t="s">
@@ -4904,18 +6469,18 @@
         <v>53</v>
       </c>
       <c r="S3" s="2"/>
-      <c r="U3" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="V3" s="2" t="s">
+      <c r="U3" s="2"/>
+      <c r="V3" s="1" t="s">
         <v>310</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="X3" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>311</v>
+      </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:24" ht="93.75" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -4943,7 +6508,7 @@
       <c r="M4" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="N4" s="6" t="s">
         <v>169</v>
       </c>
       <c r="P4" s="2" t="s">
@@ -4956,18 +6521,20 @@
         <v>11</v>
       </c>
       <c r="S4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="1" t="s">
+      <c r="U4" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="V4" s="2" t="s">
         <v>313</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="X4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X4" s="5" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="93.75" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:24" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
@@ -5011,20 +6578,18 @@
       <c r="R5" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="S5" s="6" t="s">
+      <c r="S5" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="U5" s="2" t="s">
+      <c r="U5" s="2"/>
+      <c r="V5" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="V5" s="2" t="s">
+      <c r="W5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="X5" s="6" t="s">
         <v>316</v>
-      </c>
-      <c r="W5" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="X5" s="6" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.4">
@@ -5049,7 +6614,7 @@
       <c r="H6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="6" t="s">
         <v>99</v>
       </c>
       <c r="K6" s="2" t="s">
@@ -5074,15 +6639,17 @@
       <c r="S6" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="U6" s="2"/>
-      <c r="V6" s="1" t="s">
+      <c r="U6" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="W6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="X6" s="2" t="s">
         <v>319</v>
-      </c>
-      <c r="W6" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="X6" s="7" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.4">
@@ -5130,18 +6697,16 @@
       <c r="S7" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="U7" s="2" t="s">
-        <v>321</v>
+      <c r="U7" s="1" t="s">
+        <v>319</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="X7" s="2" t="s">
-        <v>323</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="X7" s="2"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
@@ -5163,7 +6728,7 @@
       <c r="H8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="6" t="s">
         <v>103</v>
       </c>
       <c r="K8" s="2"/>
@@ -5186,16 +6751,18 @@
         <v>11</v>
       </c>
       <c r="S8" s="2"/>
-      <c r="U8" s="1" t="s">
+      <c r="U8" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="V8" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="W8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="X8" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="V8" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="W8" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="X8" s="2"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
@@ -5219,7 +6786,7 @@
       <c r="H9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="6" t="s">
         <v>106</v>
       </c>
       <c r="K9" s="1" t="s">
@@ -5243,17 +6810,15 @@
       </c>
       <c r="S9" s="2"/>
       <c r="U9" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="V9" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="V9" s="2" t="s">
-        <v>326</v>
-      </c>
       <c r="W9" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="X9" s="2" t="s">
-        <v>327</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="X9" s="2"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
@@ -5277,7 +6842,7 @@
       <c r="H10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="6" t="s">
         <v>109</v>
       </c>
       <c r="K10" s="2"/>
@@ -5301,17 +6866,17 @@
       </c>
       <c r="S10" s="2"/>
       <c r="U10" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="V10" s="2" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="W10" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="X10" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="X10" s="6"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:24" ht="131.25" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>32</v>
       </c>
@@ -5321,7 +6886,7 @@
       <c r="C11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>34</v>
       </c>
       <c r="F11" s="2"/>
@@ -5331,7 +6896,7 @@
       <c r="H11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I11" s="6" t="s">
         <v>111</v>
       </c>
       <c r="K11" s="2" t="s">
@@ -5354,18 +6919,20 @@
         <v>11</v>
       </c>
       <c r="S11" s="2"/>
-      <c r="U11" s="2" t="s">
-        <v>330</v>
+      <c r="U11" s="1" t="s">
+        <v>327</v>
       </c>
       <c r="V11" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="W11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X11" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="W11" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="X11" s="7"/>
     </row>
-    <row r="12" spans="1:24" ht="131.25" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:24" ht="75" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>35</v>
       </c>
@@ -5387,7 +6954,7 @@
       <c r="H12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I12" s="7"/>
+      <c r="I12" s="6"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2" t="s">
         <v>185</v>
@@ -5395,7 +6962,7 @@
       <c r="M12" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="N12" s="6" t="s">
+      <c r="N12" s="5" t="s">
         <v>186</v>
       </c>
       <c r="P12" s="2" t="s">
@@ -5408,17 +6975,17 @@
         <v>11</v>
       </c>
       <c r="S12" s="2"/>
-      <c r="U12" s="1" t="s">
+      <c r="U12" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="V12" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="V12" s="2" t="s">
+      <c r="W12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="X12" s="2" t="s">
         <v>332</v>
-      </c>
-      <c r="W12" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="X12" s="6" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.4">
@@ -5443,7 +7010,7 @@
       <c r="H13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I13" s="7"/>
+      <c r="I13" s="6"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2" t="s">
         <v>187</v>
@@ -5465,16 +7032,16 @@
       </c>
       <c r="S13" s="2"/>
       <c r="U13" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="V13" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="V13" s="2" t="s">
+      <c r="W13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X13" s="2" t="s">
         <v>335</v>
-      </c>
-      <c r="W13" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="X13" s="2" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.4">
@@ -5494,10 +7061,10 @@
       <c r="G14" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="I14" s="6" t="s">
         <v>117</v>
       </c>
       <c r="K14" s="2" t="s">
@@ -5519,20 +7086,20 @@
       <c r="R14" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="S14" s="8" t="s">
+      <c r="S14" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="U14" s="2" t="s">
+      <c r="U14" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="V14" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="W14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="X14" s="2" t="s">
         <v>338</v>
-      </c>
-      <c r="V14" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="W14" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="X14" s="2" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.4">
@@ -5545,14 +7112,14 @@
       <c r="C15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="7"/>
+      <c r="D15" s="6"/>
       <c r="F15" s="2" t="s">
         <v>118</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="6" t="s">
         <v>11</v>
       </c>
       <c r="I15" s="2" t="s">
@@ -5580,18 +7147,16 @@
       <c r="S15" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="U15" s="1" t="s">
-        <v>341</v>
+      <c r="U15" s="2" t="s">
+        <v>339</v>
       </c>
       <c r="V15" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="W15" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="X15" s="2" t="s">
-        <v>343</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="X15" s="2"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
@@ -5610,10 +7175,10 @@
       <c r="G16" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="H16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I16" s="9" t="s">
+      <c r="H16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" s="8" t="s">
         <v>123</v>
       </c>
       <c r="K16" s="2" t="s">
@@ -5637,13 +7202,13 @@
       </c>
       <c r="S16" s="2"/>
       <c r="U16" s="2" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="W16" s="2" t="s">
-        <v>317</v>
+        <v>11</v>
       </c>
       <c r="X16" s="2"/>
     </row>
@@ -5664,10 +7229,10 @@
       <c r="G17" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="H17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I17" s="9"/>
+      <c r="H17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" s="8"/>
       <c r="K17" s="2" t="s">
         <v>195</v>
       </c>
@@ -5689,15 +7254,17 @@
       </c>
       <c r="S17" s="2"/>
       <c r="U17" s="2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="V17" s="2" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="W17" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="X17" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="X17" s="2" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
@@ -5716,10 +7283,10 @@
       <c r="G18" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="H18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I18" s="9"/>
+      <c r="H18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" s="8"/>
       <c r="K18" s="2"/>
       <c r="L18" s="1" t="s">
         <v>198</v>
@@ -5741,26 +7308,26 @@
       </c>
       <c r="S18" s="2"/>
       <c r="U18" s="2" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="V18" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="W18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X18" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="W18" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="X18" s="2" t="s">
-        <v>350</v>
-      </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:24" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B19" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="6" t="s">
         <v>54</v>
       </c>
       <c r="F19" s="2" t="s">
@@ -5769,10 +7336,10 @@
       <c r="G19" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="H19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I19" s="9"/>
+      <c r="H19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" s="8"/>
       <c r="K19" s="2" t="s">
         <v>199</v>
       </c>
@@ -5782,7 +7349,7 @@
       <c r="M19" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="N19" s="7" t="s">
+      <c r="N19" s="6" t="s">
         <v>201</v>
       </c>
       <c r="P19" s="2" t="s">
@@ -5796,19 +7363,19 @@
       </c>
       <c r="S19" s="2"/>
       <c r="U19" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="V19" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="W19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X19" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="V19" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="W19" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="X19" s="7" t="s">
-        <v>353</v>
-      </c>
     </row>
-    <row r="20" spans="1:24" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>55</v>
       </c>
@@ -5818,7 +7385,7 @@
       <c r="C20" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="6" t="s">
         <v>57</v>
       </c>
       <c r="F20" s="1" t="s">
@@ -5827,10 +7394,10 @@
       <c r="G20" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="H20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I20" s="9" t="s">
+      <c r="H20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I20" s="8" t="s">
         <v>132</v>
       </c>
       <c r="K20" s="2" t="s">
@@ -5854,20 +7421,20 @@
       <c r="R20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="S20" s="7" t="s">
+      <c r="S20" s="6" t="s">
         <v>271</v>
       </c>
       <c r="U20" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="V20" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="W20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="X20" s="6" t="s">
         <v>354</v>
-      </c>
-      <c r="V20" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="W20" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="X20" s="6" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.4">
@@ -5887,10 +7454,10 @@
       <c r="G21" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="H21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I21" s="9"/>
+      <c r="H21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21" s="8"/>
       <c r="K21" s="1" t="s">
         <v>205</v>
       </c>
@@ -5912,21 +7479,19 @@
       <c r="R21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="S21" s="7" t="s">
+      <c r="S21" s="6" t="s">
         <v>274</v>
       </c>
       <c r="U21" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="V21" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="W21" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="X21" s="7" t="s">
-        <v>359</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="X21" s="6"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
@@ -5945,10 +7510,10 @@
       <c r="G22" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="H22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I22" s="9"/>
+      <c r="H22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22" s="8"/>
       <c r="K22" s="2" t="s">
         <v>208</v>
       </c>
@@ -5968,19 +7533,19 @@
       <c r="R22" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="S22" s="7" t="s">
+      <c r="S22" s="6" t="s">
         <v>276</v>
       </c>
       <c r="U22" s="2" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="V22" s="2" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="W22" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="X22" s="7"/>
+        <v>14</v>
+      </c>
+      <c r="X22" s="2"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
@@ -5992,7 +7557,7 @@
       <c r="C23" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="6" t="s">
         <v>63</v>
       </c>
       <c r="F23" s="1" t="s">
@@ -6001,10 +7566,10 @@
       <c r="G23" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="H23" s="7" t="s">
+      <c r="H23" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="I23" s="9" t="s">
+      <c r="I23" s="8" t="s">
         <v>139</v>
       </c>
       <c r="K23" s="2" t="s">
@@ -6026,19 +7591,19 @@
       <c r="R23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="S23" s="7" t="s">
+      <c r="S23" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="U23" s="2" t="s">
-        <v>362</v>
-      </c>
+      <c r="U23" s="2"/>
       <c r="V23" s="2" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="W23" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="X23" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="X23" s="2" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
@@ -6072,7 +7637,7 @@
       <c r="M24" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="N24" s="7" t="s">
+      <c r="N24" s="6" t="s">
         <v>214</v>
       </c>
       <c r="P24" s="2" t="s">
@@ -6085,16 +7650,16 @@
         <v>11</v>
       </c>
       <c r="S24" s="2"/>
-      <c r="U24" s="2"/>
+      <c r="U24" s="2" t="s">
+        <v>361</v>
+      </c>
       <c r="V24" s="2" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="W24" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="X24" s="2" t="s">
-        <v>366</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="X24" s="2"/>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
@@ -6106,7 +7671,7 @@
       <c r="C25" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="6" t="s">
         <v>70</v>
       </c>
       <c r="F25" s="2" t="s">
@@ -6115,7 +7680,7 @@
       <c r="G25" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="H25" s="6" t="s">
         <v>11</v>
       </c>
       <c r="I25" s="2"/>
@@ -6140,13 +7705,13 @@
       </c>
       <c r="S25" s="2"/>
       <c r="U25" s="2" t="s">
-        <v>367</v>
+        <v>305</v>
       </c>
       <c r="V25" s="2" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="W25" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="X25" s="2"/>
     </row>
@@ -6196,13 +7761,13 @@
         <v>287</v>
       </c>
       <c r="U26" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="V26" s="2" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="W26" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="X26" s="2"/>
     </row>
@@ -6240,7 +7805,7 @@
       <c r="M27" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N27" s="7" t="s">
+      <c r="N27" s="6" t="s">
         <v>221</v>
       </c>
       <c r="P27" s="2" t="s">
@@ -6249,18 +7814,18 @@
       <c r="Q27" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="R27" s="7" t="s">
+      <c r="R27" s="6" t="s">
         <v>11</v>
       </c>
       <c r="S27" s="2"/>
       <c r="U27" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="V27" s="2" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="W27" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="X27" s="2"/>
     </row>
@@ -6284,7 +7849,7 @@
       <c r="H28" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I28" s="7" t="s">
+      <c r="I28" s="6" t="s">
         <v>152</v>
       </c>
       <c r="K28" s="2" t="s">
@@ -6303,18 +7868,18 @@
       <c r="Q28" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="R28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="S28" s="7"/>
+      <c r="R28" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="S28" s="6"/>
       <c r="U28" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="V28" s="2" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="W28" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="X28" s="2"/>
     </row>
@@ -6328,7 +7893,7 @@
       <c r="C29" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="7"/>
+      <c r="D29" s="6"/>
       <c r="F29" s="2" t="s">
         <v>153</v>
       </c>
@@ -6355,22 +7920,22 @@
       <c r="Q29" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="R29" s="7" t="s">
+      <c r="R29" s="6" t="s">
         <v>11</v>
       </c>
       <c r="S29" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="U29" s="2" t="s">
-        <v>308</v>
-      </c>
+      <c r="U29" s="2"/>
       <c r="V29" s="2" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="W29" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="X29" s="2"/>
+        <v>309</v>
+      </c>
+      <c r="X29" s="2" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
@@ -6411,7 +7976,7 @@
       <c r="Q30" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="R30" s="7" t="s">
+      <c r="R30" s="6" t="s">
         <v>11</v>
       </c>
       <c r="S30" s="2" t="s">
@@ -6419,13 +7984,13 @@
       </c>
       <c r="U30" s="2"/>
       <c r="V30" s="2" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="W30" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="X30" s="2" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.4">
@@ -6457,34 +8022,34 @@
       <c r="L31" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="M31" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="N31" s="7"/>
+      <c r="M31" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N31" s="6"/>
       <c r="P31" s="2" t="s">
         <v>297</v>
       </c>
       <c r="Q31" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="R31" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="S31" s="7" t="s">
+      <c r="R31" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="S31" s="6" t="s">
         <v>299</v>
       </c>
       <c r="U31" s="2"/>
       <c r="V31" s="2" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="W31" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="X31" s="2" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:24" ht="150" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
         <v>86</v>
       </c>
@@ -6509,10 +8074,10 @@
       <c r="L32" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="M32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="N32" s="7" t="s">
+      <c r="M32" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N32" s="6" t="s">
         <v>232</v>
       </c>
       <c r="P32" s="2" t="s">
@@ -6521,24 +8086,26 @@
       <c r="Q32" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="R32" s="7" t="s">
+      <c r="R32" s="6" t="s">
         <v>53</v>
       </c>
       <c r="S32" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="U32" s="2"/>
+      <c r="U32" s="2" t="s">
+        <v>372</v>
+      </c>
       <c r="V32" s="2" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="W32" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="X32" s="2" t="s">
-        <v>377</v>
+        <v>286</v>
+      </c>
+      <c r="X32" s="5" t="s">
+        <v>374</v>
       </c>
     </row>
-    <row r="33" spans="1:24" ht="150" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
         <v>88</v>
       </c>
@@ -6560,77 +8127,66 @@
       <c r="H33" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I33" s="7"/>
+      <c r="I33" s="6"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
-      <c r="M33" s="7"/>
-      <c r="N33" s="7"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
       <c r="P33" s="2" t="s">
         <v>303</v>
       </c>
       <c r="Q33" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="R33" s="7" t="s">
+      <c r="R33" s="6" t="s">
         <v>11</v>
       </c>
       <c r="S33" s="2"/>
-      <c r="U33" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="V33" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="W33" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="X33" s="6" t="s">
-        <v>380</v>
+      <c r="U33" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="V33" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="W33" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="U34" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="V34" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="W34" s="4" t="s">
-        <v>312</v>
+      <c r="V34" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="W34" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="X34" s="3" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="V35" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="W35" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="X35" s="4" t="s">
-        <v>385</v>
+      <c r="U35" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="V35" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="W35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X35" s="3" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="U36" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="V36" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="W36" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="X36" s="4" t="s">
-        <v>388</v>
+      <c r="U36" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="X36" s="9" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="U37" s="4" t="s">
-        <v>389</v>
-      </c>
-      <c r="X37" s="10" t="s">
-        <v>390</v>
-      </c>
+      <c r="X37" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -6644,4 +8200,788 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE6D4C06-F128-45B6-BFDE-684E7569AE2E}">
+  <dimension ref="A1:X32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="4" max="4" width="44.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="60.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="F1" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="K1" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="P1" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="U1" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
+    </row>
+    <row r="2" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>389</v>
+      </c>
+      <c r="B3" t="s">
+        <v>390</v>
+      </c>
+      <c r="C3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" t="s">
+        <v>391</v>
+      </c>
+      <c r="F3" t="s">
+        <v>446</v>
+      </c>
+      <c r="G3" t="s">
+        <v>447</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>392</v>
+      </c>
+      <c r="B4" t="s">
+        <v>393</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="F4" t="s">
+        <v>448</v>
+      </c>
+      <c r="G4" t="s">
+        <v>447</v>
+      </c>
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>395</v>
+      </c>
+      <c r="B5" t="s">
+        <v>396</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>450</v>
+      </c>
+      <c r="G5" t="s">
+        <v>451</v>
+      </c>
+      <c r="H5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>397</v>
+      </c>
+      <c r="B6" t="s">
+        <v>396</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>452</v>
+      </c>
+      <c r="G6" t="s">
+        <v>451</v>
+      </c>
+      <c r="H6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>398</v>
+      </c>
+      <c r="B7" t="s">
+        <v>399</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
+        <v>453</v>
+      </c>
+      <c r="G7" t="s">
+        <v>451</v>
+      </c>
+      <c r="H7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>400</v>
+      </c>
+      <c r="B8" t="s">
+        <v>401</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>454</v>
+      </c>
+      <c r="G8" t="s">
+        <v>451</v>
+      </c>
+      <c r="H8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>402</v>
+      </c>
+      <c r="B9" t="s">
+        <v>403</v>
+      </c>
+      <c r="C9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" t="s">
+        <v>404</v>
+      </c>
+      <c r="F9" t="s">
+        <v>456</v>
+      </c>
+      <c r="G9" t="s">
+        <v>457</v>
+      </c>
+      <c r="H9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>405</v>
+      </c>
+      <c r="B10" t="s">
+        <v>406</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>407</v>
+      </c>
+      <c r="F10" t="s">
+        <v>459</v>
+      </c>
+      <c r="G10" t="s">
+        <v>460</v>
+      </c>
+      <c r="H10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>408</v>
+      </c>
+      <c r="B11" t="s">
+        <v>409</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="F11" t="s">
+        <v>462</v>
+      </c>
+      <c r="G11" t="s">
+        <v>463</v>
+      </c>
+      <c r="H11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>411</v>
+      </c>
+      <c r="B12" t="s">
+        <v>412</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>413</v>
+      </c>
+      <c r="G12" t="s">
+        <v>464</v>
+      </c>
+      <c r="H12" t="s">
+        <v>168</v>
+      </c>
+      <c r="I12" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="B13" t="s">
+        <v>414</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="F13" t="s">
+        <v>466</v>
+      </c>
+      <c r="G13" t="s">
+        <v>467</v>
+      </c>
+      <c r="H13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>416</v>
+      </c>
+      <c r="B14" t="s">
+        <v>417</v>
+      </c>
+      <c r="C14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="F14" t="s">
+        <v>468</v>
+      </c>
+      <c r="G14" t="s">
+        <v>469</v>
+      </c>
+      <c r="H14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>419</v>
+      </c>
+      <c r="B15" t="s">
+        <v>420</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" t="s">
+        <v>470</v>
+      </c>
+      <c r="G15" t="s">
+        <v>471</v>
+      </c>
+      <c r="H15" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="187.5" x14ac:dyDescent="0.4">
+      <c r="B16" t="s">
+        <v>421</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
+        <v>422</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>423</v>
+      </c>
+      <c r="B17" t="s">
+        <v>424</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" t="s">
+        <v>211</v>
+      </c>
+      <c r="G17" t="s">
+        <v>212</v>
+      </c>
+      <c r="H17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>425</v>
+      </c>
+      <c r="B18" t="s">
+        <v>426</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" t="s">
+        <v>475</v>
+      </c>
+      <c r="G18" t="s">
+        <v>476</v>
+      </c>
+      <c r="H18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B19" t="s">
+        <v>427</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s">
+        <v>428</v>
+      </c>
+      <c r="F19" t="s">
+        <v>477</v>
+      </c>
+      <c r="G19" t="s">
+        <v>478</v>
+      </c>
+      <c r="H19" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>429</v>
+      </c>
+      <c r="B20" t="s">
+        <v>430</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" t="s">
+        <v>480</v>
+      </c>
+      <c r="G20" t="s">
+        <v>481</v>
+      </c>
+      <c r="H20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>431</v>
+      </c>
+      <c r="B21" t="s">
+        <v>430</v>
+      </c>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" t="s">
+        <v>483</v>
+      </c>
+      <c r="G21" t="s">
+        <v>482</v>
+      </c>
+      <c r="H21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>432</v>
+      </c>
+      <c r="B22" t="s">
+        <v>433</v>
+      </c>
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" t="s">
+        <v>484</v>
+      </c>
+      <c r="G22" t="s">
+        <v>485</v>
+      </c>
+      <c r="H22" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B23" t="s">
+        <v>434</v>
+      </c>
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" t="s">
+        <v>435</v>
+      </c>
+      <c r="F23" t="s">
+        <v>486</v>
+      </c>
+      <c r="G23" t="s">
+        <v>487</v>
+      </c>
+      <c r="H23" t="s">
+        <v>53</v>
+      </c>
+      <c r="I23" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>436</v>
+      </c>
+      <c r="B24" t="s">
+        <v>437</v>
+      </c>
+      <c r="C24" t="s">
+        <v>53</v>
+      </c>
+      <c r="F24" t="s">
+        <v>489</v>
+      </c>
+      <c r="G24" t="s">
+        <v>490</v>
+      </c>
+      <c r="H24" t="s">
+        <v>11</v>
+      </c>
+      <c r="I24" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B25" t="s">
+        <v>438</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="F25" t="s">
+        <v>492</v>
+      </c>
+      <c r="G25" t="s">
+        <v>493</v>
+      </c>
+      <c r="H25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>440</v>
+      </c>
+      <c r="B26" t="s">
+        <v>441</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" t="s">
+        <v>442</v>
+      </c>
+      <c r="F26" t="s">
+        <v>494</v>
+      </c>
+      <c r="G26" t="s">
+        <v>495</v>
+      </c>
+      <c r="H26" t="s">
+        <v>11</v>
+      </c>
+      <c r="I26" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>443</v>
+      </c>
+      <c r="B27" t="s">
+        <v>441</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" t="s">
+        <v>498</v>
+      </c>
+      <c r="G27" t="s">
+        <v>497</v>
+      </c>
+      <c r="H27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>444</v>
+      </c>
+      <c r="B28" t="s">
+        <v>445</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" t="s">
+        <v>499</v>
+      </c>
+      <c r="G28" t="s">
+        <v>500</v>
+      </c>
+      <c r="H28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>508</v>
+      </c>
+      <c r="B29" t="s">
+        <v>509</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" t="s">
+        <v>370</v>
+      </c>
+      <c r="F29" t="s">
+        <v>501</v>
+      </c>
+      <c r="G29" t="s">
+        <v>502</v>
+      </c>
+      <c r="H29" t="s">
+        <v>53</v>
+      </c>
+      <c r="I29" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B30" t="s">
+        <v>510</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>511</v>
+      </c>
+      <c r="G30" t="s">
+        <v>504</v>
+      </c>
+      <c r="H30" t="s">
+        <v>11</v>
+      </c>
+      <c r="I30" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B31" t="s">
+        <v>512</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="G31" t="s">
+        <v>506</v>
+      </c>
+      <c r="H31" t="s">
+        <v>11</v>
+      </c>
+      <c r="I31" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>514</v>
+      </c>
+      <c r="B32" t="s">
+        <v>515</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>516</v>
+      </c>
+      <c r="F32" t="s">
+        <v>517</v>
+      </c>
+      <c r="G32" t="s">
+        <v>518</v>
+      </c>
+      <c r="H32" t="s">
+        <v>11</v>
+      </c>
+      <c r="I32" t="s">
+        <v>519</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="U1:X1"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>